--- a/src/formatos/Analisis/consolidado.xlsx
+++ b/src/formatos/Analisis/consolidado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.valencia\Desktop\Archivos\formatos\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.valencia\Desktop\complementoSICA\complementosica\src\formatos\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
